--- a/data/SchoolDisctrictRank.xlsx
+++ b/data/SchoolDisctrictRank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgpih\Documents\Flatiron\Phase2\CourseLabsCloned\Project\dsc-phase-2-project\ScrapedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgpih\Documents\Flatiron\Phase2\Project\Phase2Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81340D77-E82A-432F-B112-0F6D07DE5225}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1869CAE9-EAC2-443D-BAAA-F15A1683A70E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="16230" windowHeight="11385" xr2:uid="{D845A9CA-ACCC-48AD-AF95-FB62B2718242}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{D845A9CA-ACCC-48AD-AF95-FB62B2718242}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>State Rank</t>
   </si>
@@ -361,16 +361,13 @@
     <t>Fife School District</t>
   </si>
   <si>
-    <t>I enterd</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Tacoma School District</t>
   </si>
   <si>
     <t>Skykomish School District</t>
+  </si>
+  <si>
+    <t>SchoolDistRankBin</t>
   </si>
 </sst>
 </file>
@@ -805,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19C62CB-7320-4A3B-A806-7069B7452D7B}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106:D106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="86" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -840,6 +837,10 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" t="str">
+        <f>IF(A2&lt;15,"Top15",IF(A2&lt;30,"Top30",IF(A2&lt;60,"Top60","Top100")))</f>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -851,6 +852,10 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="0">IF(A3&lt;15,"Top15",IF(A3&lt;30,"Top30",IF(A3&lt;60,"Top60","Top100")))</f>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -862,6 +867,10 @@
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -872,6 +881,10 @@
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,6 +897,10 @@
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -895,6 +912,10 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -906,6 +927,10 @@
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -917,6 +942,10 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -928,6 +957,10 @@
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -939,6 +972,10 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -950,6 +987,10 @@
       <c r="C12" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -961,6 +1002,10 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -972,6 +1017,10 @@
       <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
@@ -983,6 +1032,10 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>Top15</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -994,8 +1047,12 @@
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1005,8 +1062,12 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1016,8 +1077,12 @@
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1027,8 +1092,12 @@
       <c r="C19" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1038,8 +1107,12 @@
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1049,8 +1122,12 @@
       <c r="C21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1060,8 +1137,12 @@
       <c r="C22" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1071,8 +1152,12 @@
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1082,8 +1167,12 @@
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1093,8 +1182,12 @@
       <c r="C25" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1104,8 +1197,12 @@
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1115,8 +1212,12 @@
       <c r="C27" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1126,8 +1227,12 @@
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1137,8 +1242,12 @@
       <c r="C29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1148,8 +1257,12 @@
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>Top30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1159,8 +1272,12 @@
       <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1170,8 +1287,12 @@
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1181,8 +1302,12 @@
       <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1192,8 +1317,12 @@
       <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1203,8 +1332,12 @@
       <c r="C35" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1214,8 +1347,12 @@
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1225,8 +1362,12 @@
       <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1236,8 +1377,12 @@
       <c r="C38" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1247,8 +1392,12 @@
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -1258,8 +1407,12 @@
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1269,8 +1422,12 @@
       <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -1280,8 +1437,12 @@
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1291,8 +1452,12 @@
       <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -1302,8 +1467,12 @@
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1313,8 +1482,12 @@
       <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -1324,8 +1497,12 @@
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1335,8 +1512,12 @@
       <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -1346,8 +1527,12 @@
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1357,8 +1542,12 @@
       <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -1368,8 +1557,12 @@
       <c r="C50" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1379,8 +1572,12 @@
       <c r="C51" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -1390,8 +1587,12 @@
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1401,8 +1602,12 @@
       <c r="C53" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -1412,8 +1617,12 @@
       <c r="C54" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1423,8 +1632,12 @@
       <c r="C55" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -1434,8 +1647,12 @@
       <c r="C56" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1445,8 +1662,12 @@
       <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -1456,8 +1677,12 @@
       <c r="C58" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1467,8 +1692,12 @@
       <c r="C59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -1478,8 +1707,12 @@
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>Top60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1489,8 +1722,12 @@
       <c r="C61" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -1500,8 +1737,12 @@
       <c r="C62" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1511,8 +1752,12 @@
       <c r="C63" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -1522,8 +1767,12 @@
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1533,8 +1782,12 @@
       <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -1544,8 +1797,12 @@
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1555,8 +1812,12 @@
       <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D106" si="1">IF(A67&lt;15,"Top15",IF(A67&lt;30,"Top30",IF(A67&lt;60,"Top60","Top100")))</f>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -1566,8 +1827,12 @@
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1577,8 +1842,12 @@
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -1588,8 +1857,12 @@
       <c r="C70" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1599,8 +1872,12 @@
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -1610,8 +1887,12 @@
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1621,8 +1902,12 @@
       <c r="C73" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -1632,8 +1917,12 @@
       <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1643,8 +1932,12 @@
       <c r="C75" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -1654,8 +1947,12 @@
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1665,8 +1962,12 @@
       <c r="C77" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -1676,8 +1977,12 @@
       <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1687,8 +1992,12 @@
       <c r="C79" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -1698,8 +2007,12 @@
       <c r="C80" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1709,8 +2022,12 @@
       <c r="C81" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -1720,8 +2037,12 @@
       <c r="C82" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1731,8 +2052,12 @@
       <c r="C83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -1742,8 +2067,12 @@
       <c r="C84" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1753,8 +2082,12 @@
       <c r="C85" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -1764,8 +2097,12 @@
       <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1775,8 +2112,12 @@
       <c r="C87" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -1786,8 +2127,12 @@
       <c r="C88" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1797,8 +2142,12 @@
       <c r="C89" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -1808,8 +2157,12 @@
       <c r="C90" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1819,8 +2172,12 @@
       <c r="C91" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -1830,8 +2187,12 @@
       <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -1841,8 +2202,12 @@
       <c r="C93" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -1852,8 +2217,12 @@
       <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -1863,8 +2232,12 @@
       <c r="C95" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -1873,6 +2246,10 @@
       </c>
       <c r="C96" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1885,6 +2262,10 @@
       <c r="C97" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
@@ -1896,6 +2277,10 @@
       <c r="C98" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
@@ -1907,6 +2292,10 @@
       <c r="C99" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
@@ -1918,6 +2307,10 @@
       <c r="C100" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
@@ -1929,6 +2322,10 @@
       <c r="C101" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
@@ -1940,8 +2337,9 @@
       <c r="C102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D102" t="s">
-        <v>108</v>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,8 +2352,9 @@
       <c r="C103" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D103" t="s">
-        <v>108</v>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,8 +2367,9 @@
       <c r="C104" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D104" t="s">
-        <v>108</v>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1977,13 +2377,14 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D105" t="s">
-        <v>108</v>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,13 +2392,14 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D106" t="s">
-        <v>108</v>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>Top100</v>
       </c>
     </row>
   </sheetData>
